--- a/data/trans_dic/P14_3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P14_3-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en vena)</t>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en vena) (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>5,04%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,06</t>
+          <t>0,0; 3,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 8,9</t>
+          <t>2,11; 9,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,38</t>
+          <t>0,0; 5,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,41; 9,53</t>
+          <t>2,36; 9,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,44</t>
+          <t>0,29; 2,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,88; 7,68</t>
+          <t>3,11; 8,0</t>
         </is>
       </c>
     </row>
@@ -681,22 +682,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,56%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,76</t>
+          <t>0,55; 5,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,59; 14,31</t>
+          <t>4,18; 12,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 7,8</t>
+          <t>1,66; 7,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,25; 13,93</t>
+          <t>6,59; 14,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 5,33</t>
+          <t>1,76; 5,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,14; 12,23</t>
+          <t>6,21; 11,71</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>9,72%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,19</t>
+          <t>1,13; 5,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,85; 15,23</t>
+          <t>7,55; 15,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 11,78</t>
+          <t>1,8; 6,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 11,46</t>
+          <t>5,86; 11,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 7,72</t>
+          <t>1,94; 5,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,66; 12,54</t>
+          <t>7,61; 12,29</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>7,21%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,0; 8,8</t>
+          <t>3,12; 8,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 10,12</t>
+          <t>4,6; 10,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 6,0</t>
+          <t>2,19; 6,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 10,48</t>
+          <t>5,24; 10,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,03; 6,4</t>
+          <t>2,93; 6,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,42; 9,19</t>
+          <t>5,5; 9,33</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>9,74%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 8,05</t>
+          <t>2,54; 8,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,23; 13,28</t>
+          <t>6,29; 13,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,01; 7,13</t>
+          <t>2,07; 7,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,42; 14,45</t>
+          <t>6,8; 14,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,72; 6,44</t>
+          <t>2,89; 6,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,39; 12,81</t>
+          <t>7,26; 12,67</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,52%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,96</t>
+          <t>0,0; 4,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,96; 13,1</t>
+          <t>2,09; 10,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,5</t>
+          <t>0,38; 3,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,24; 7,74</t>
+          <t>2,25; 7,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,85</t>
+          <t>0,45; 2,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,81; 7,69</t>
+          <t>2,63; 7,39</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>7,49%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,06; 3,83</t>
+          <t>2,16; 4,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,29; 9,37</t>
+          <t>6,14; 9,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,7</t>
+          <t>2,34; 4,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,15; 8,83</t>
+          <t>6,23; 8,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,47; 3,99</t>
+          <t>2,4; 3,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,61; 8,6</t>
+          <t>6,54; 8,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en vena) (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3380</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>26114</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6143</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>26221</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>9523</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>52335</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18302</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11062; 47674</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 24729</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12150; 47235</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2841; 26806</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>32365; 83096</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>12364</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>41178</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21252</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>50756</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>33617</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>91934</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3182; 29258</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>23656; 70552</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8629; 40012</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>33480; 72088</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>19216; 59172</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>66619; 125755</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>18662</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>74961</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>27342</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>61009</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>46004</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>135970</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7740; 36765</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>51412; 104147</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12828; 48046</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>42097; 84913</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>27200; 71876</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>106545; 171948</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>35237</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>44695</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>25706</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>50244</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>60942</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>94939</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>20222; 54553</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>29695; 66402</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>15020; 45395</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>35202; 71049</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>39057; 85895</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>72416; 122958</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>23615</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>46892</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>21337</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>50426</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>44952</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>97318</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12592; 40089</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>31188; 68179</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10550; 36216</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>34226; 72993</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>29007; 68446</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>72511; 126560</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>6768</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>25529</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>11320</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>29078</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>18088</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>54608</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 22280</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>11065; 55917</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2700; 28336</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>15304; 50371</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5691; 37276</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>31828; 89303</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>259370</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>113101</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>267734</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>213127</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>527104</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>74433; 140136</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>211307; 314600</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>84480; 146363</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>223825; 311852</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>169401; 263934</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>460196; 593352</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>